--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-09 10:50:07</t>
+          <t>2021-12-09 17:53:55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-09 10:27:04</t>
+          <t>2021-12-09 17:43:26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-09 09:56:14</t>
+          <t>2021-12-09 17:08:35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>778.0</t>
+          <t>777.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-09 10:03:13</t>
+          <t>2021-12-09 17:13:46</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-09 09:55:09</t>
+          <t>2021-12-09 17:10:02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>786.0</t>
+          <t>785.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-09 10:07:27</t>
+          <t>2021-12-09 17:18:36</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>781.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-09 10:25:34</t>
+          <t>2021-12-09 17:12:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>790.0</t>
+          <t>789.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>789.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-09 10:02:36</t>
+          <t>2021-12-10 13:10:31</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>781.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-09 07:27:20</t>
+          <t>2021-12-10 15:39:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>783.0</t>
+          <t>782.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-09 12:25:53</t>
+          <t>2021-12-10 19:49:34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-09 11:51:40</t>
+          <t>2021-12-11 16:24:22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-09 10:03:34</t>
+          <t>2021-12-13 14:24:56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>784.0</t>
+          <t>782.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-08 21:14:27</t>
+          <t>2021-12-15 20:11:14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>775.0</t>
+          <t>781.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>785.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-08 23:21:59</t>
+          <t>2021-12-15 23:56:44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>766.0</t>
+          <t>772.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>789.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>783.0</t>
+          <t>790.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>786.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>783.0</t>
+          <t>790.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>789.0</t>
+          <t>795.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-09 15:44:00</t>
+          <t>2021-12-16 14:56:18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-10 19:49:34</t>
+          <t>2021-12-16 08:50:46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-11 16:24:22</t>
+          <t>2021-12-16 09:12:43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-09 17:53:55</t>
+          <t>2021-12-16 09:31:58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-09 17:43:26</t>
+          <t>2021-12-16 10:17:59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-09 17:08:35</t>
+          <t>2021-12-16 13:10:08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>777.0</t>
+          <t>783.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-09 17:13:46</t>
+          <t>2021-12-16 13:05:45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-09 17:10:02</t>
+          <t>2021-12-16 13:06:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>791.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-09 17:18:36</t>
+          <t>2021-12-16 13:02:28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-09 17:12:03</t>
+          <t>2021-12-16 13:02:07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>782.0</t>
+          <t>789.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-09 14:09:42</t>
+          <t>2021-12-16 15:05:54</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-10 13:10:31</t>
+          <t>2021-12-16 12:55:55</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>783.0</t>
+          <t>790.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-09 12:30:28</t>
+          <t>2021-12-16 13:59:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>786.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-09 01:49:14</t>
+          <t>2021-12-16 13:48:45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-16 08:50:46</t>
+          <t>2021-12-17 09:10:12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-16 09:31:58</t>
+          <t>2021-12-17 08:41:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>783.0</t>
+          <t>779.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-16 09:12:43</t>
+          <t>2021-12-18 15:32:02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>786.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-13 14:24:56</t>
+          <t>2021-12-20 14:15:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-20 14:15:14</t>
+          <t>2021-12-21 14:25:54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-17 09:10:12</t>
+          <t>2021-12-21 12:38:53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-09 13:26:03</t>
+          <t>2021-12-21 15:07:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-21 14:25:54</t>
+          <t>2021-12-23 07:09:04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>795.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-08 20:30:58</t>
+          <t>2021-12-23 00:05:42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-09 00:03:36</t>
+          <t>2021-12-23 00:14:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-09 07:03:57</t>
+          <t>2021-12-23 06:48:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-08 23:31:58</t>
+          <t>2021-12-22 23:39:07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>791.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-08 23:59:36</t>
+          <t>2021-12-22 23:45:57</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-15 20:11:14</t>
+          <t>2021-12-22 21:06:07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>787.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-10 15:39:26</t>
+          <t>2021-12-23 07:41:31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>789.0</t>
+          <t>795.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-09 00:33:56</t>
+          <t>2021-12-22 23:47:05</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>790.0</t>
+          <t>796.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-09 02:15:20</t>
+          <t>2021-12-23 02:46:42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-09 04:21:18</t>
+          <t>2021-12-22 23:37:14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>786.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-09 00:09:48</t>
+          <t>2021-12-23 07:55:29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>790.0</t>
+          <t>796.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-08 23:44:48</t>
+          <t>2021-12-22 23:47:54</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-09 00:04:29</t>
+          <t>2021-12-23 00:09:55</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-09 08:13:14</t>
+          <t>2021-12-23 00:00:11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>786.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-09 00:00:25</t>
+          <t>2021-12-22 23:43:28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-09 07:04:22</t>
+          <t>2021-12-23 06:55:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-09 00:02:10</t>
+          <t>2021-12-23 16:20:20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-09 15:43:22</t>
+          <t>2021-12-23 17:40:09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-16 14:56:18</t>
+          <t>2021-12-23 17:40:46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-09 08:04:44</t>
+          <t>2021-12-23 08:30:51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-09 08:31:18</t>
+          <t>2021-12-23 09:29:41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-21 12:38:53</t>
+          <t>2021-12-23 09:24:22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-18 15:32:02</t>
+          <t>2021-12-23 20:00:57</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-17 08:41:21</t>
+          <t>2021-12-23 09:46:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-16 10:17:59</t>
+          <t>2021-12-23 10:10:26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-21 15:07:51</t>
+          <t>2021-12-23 19:09:38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-16 13:10:08</t>
+          <t>2021-12-23 09:55:22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>785.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-16 13:05:45</t>
+          <t>2021-12-23 09:56:06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-16 13:06:36</t>
+          <t>2021-12-23 09:56:08</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>791.0</t>
+          <t>797.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-16 13:02:28</t>
+          <t>2021-12-23 09:56:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-16 13:02:07</t>
+          <t>2021-12-23 10:10:33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-09 08:27:50</t>
+          <t>2021-12-23 15:12:31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>791.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-09 09:01:49</t>
+          <t>2021-12-23 09:02:37</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-09 07:03:18</t>
+          <t>2021-12-23 10:10:57</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>789.0</t>
+          <t>796.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-09 09:30:53</t>
+          <t>2021-12-23 09:30:28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-16 15:05:54</t>
+          <t>2021-12-23 16:08:47</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-09 11:56:40</t>
+          <t>2021-12-23 08:43:23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-09 14:36:54</t>
+          <t>2021-12-23 10:31:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-16 12:55:55</t>
+          <t>2021-12-23 13:01:15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-09 08:28:37</t>
+          <t>2021-12-23 11:23:14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>790.0</t>
+          <t>796.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-16 13:48:45</t>
+          <t>2021-12-23 09:52:25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-15 23:56:44</t>
+          <t>2021-12-23 21:26:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>772.0</t>
+          <t>779.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-16 13:59:00</t>
+          <t>2021-12-24 11:44:07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-23 09:52:25</t>
+          <t>2021-12-27 03:06:14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-23 07:09:04</t>
+          <t>2021-12-27 13:38:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-09 15:02:52</t>
+          <t>2021-12-27 16:23:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>795.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>795.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-27 13:38:14</t>
+          <t>2021-12-28 12:44:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-22 21:06:07</t>
+          <t>2021-12-29 20:03:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>787.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-28 12:44:06</t>
+          <t>2021-12-30 07:52:54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>807.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-23 16:20:20</t>
+          <t>2021-12-29 23:52:37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-23 00:14:50</t>
+          <t>2021-12-30 00:07:36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-23 06:48:11</t>
+          <t>2021-12-30 06:56:16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-23 09:24:22</t>
+          <t>2021-12-30 08:34:48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-23 15:12:31</t>
+          <t>2021-12-30 08:26:42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>791.0</t>
+          <t>797.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-22 23:39:07</t>
+          <t>2021-12-30 00:19:51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>791.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-22 23:45:57</t>
+          <t>2021-12-29 23:47:12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-23 09:02:37</t>
+          <t>2021-12-30 08:42:52</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-23 07:41:31</t>
+          <t>2021-12-30 07:20:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-22 23:47:05</t>
+          <t>2021-12-30 00:18:54</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>796.0</t>
+          <t>803.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-23 02:46:42</t>
+          <t>2021-12-29 23:57:46</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-22 23:37:14</t>
+          <t>2021-12-30 00:08:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-23 07:55:29</t>
+          <t>2021-12-30 01:19:49</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>796.0</t>
+          <t>803.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-22 23:47:54</t>
+          <t>2021-12-29 23:46:32</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-23 00:09:55</t>
+          <t>2021-12-30 00:25:47</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-23 00:00:11</t>
+          <t>2021-12-30 06:23:31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>799.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-23 08:43:23</t>
+          <t>2021-12-30 07:49:31</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-22 23:43:28</t>
+          <t>2021-12-29 23:58:08</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-23 06:55:10</t>
+          <t>2021-12-30 06:56:08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-24 11:44:07</t>
+          <t>2021-12-30 08:36:33</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-27 03:06:14</t>
+          <t>2021-12-30 03:36:53</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-23 17:40:09</t>
+          <t>2021-12-30 14:46:01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-23 17:40:46</t>
+          <t>2021-12-30 14:46:40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-23 00:05:42</t>
+          <t>2021-12-30 13:22:27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-23 08:30:51</t>
+          <t>2021-12-30 09:58:17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-23 09:29:41</t>
+          <t>2021-12-30 14:19:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-23 20:00:57</t>
+          <t>2021-12-30 10:11:47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-23 09:46:50</t>
+          <t>2021-12-30 09:55:20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:26</t>
+          <t>2021-12-30 14:11:19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-23 19:09:38</t>
+          <t>2021-12-30 10:47:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-23 09:55:22</t>
+          <t>2021-12-30 09:58:25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>796.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:06</t>
+          <t>2021-12-30 09:59:39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:08</t>
+          <t>2021-12-30 09:58:10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>797.0</t>
+          <t>804.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:55</t>
+          <t>2021-12-30 10:04:07</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:33</t>
+          <t>2021-12-30 10:00:06</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>806.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-23 21:26:39</t>
+          <t>2021-12-30 09:17:37</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>779.0</t>
+          <t>785.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:57</t>
+          <t>2021-12-30 09:07:08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>796.0</t>
+          <t>802.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-23 09:30:28</t>
+          <t>2021-12-30 09:18:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-23 16:08:47</t>
+          <t>2021-12-30 13:43:24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-27 16:23:50</t>
+          <t>2021-12-30 14:53:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>795.0</t>
+          <t>802.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-23 10:31:07</t>
+          <t>2021-12-30 08:59:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>805.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-23 13:01:15</t>
+          <t>2021-12-30 09:58:16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>794.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-23 11:23:14</t>
+          <t>2021-12-30 10:29:59</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>796.0</t>
+          <t>803.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-30 08:34:48</t>
+          <t>2021-12-31 16:34:40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>807.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>796.0</t>
+          <t>795.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-30 10:00:06</t>
+          <t>2021-12-31 11:05:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-30 00:25:47</t>
+          <t>2022-01-03 17:23:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>802.0</t>
+          <t>801.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-30 07:52:54</t>
+          <t>2022-01-04 10:05:52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>807.0</t>
+          <t>808.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>797.0</t>
+          <t>798.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-04 10:05:52</t>
+          <t>2022-01-06 07:07:22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>808.0</t>
+          <t>830.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-29 23:52:37</t>
+          <t>2022-01-05 23:01:48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-30 13:22:27</t>
+          <t>2022-01-06 00:27:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-30 00:07:36</t>
+          <t>2022-01-06 00:42:15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-30 06:56:16</t>
+          <t>2022-01-06 07:04:08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-12-02 01:16:54</t>
+          <t>2022-01-06 00:05:05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-30 14:19:56</t>
+          <t>2022-01-06 08:16:51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-30 00:19:51</t>
+          <t>2022-01-05 23:58:45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>820.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-29 23:47:12</t>
+          <t>2022-01-05 23:48:28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-30 09:17:37</t>
+          <t>2022-01-06 07:29:44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>792.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-29 20:03:21</t>
+          <t>2022-01-05 21:32:35</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>815.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-30 07:20:58</t>
+          <t>2022-01-06 07:49:51</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-30 00:18:54</t>
+          <t>2022-01-05 23:58:43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>803.0</t>
+          <t>825.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-29 23:57:46</t>
+          <t>2022-01-06 00:00:12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-30 00:08:24</t>
+          <t>2022-01-06 00:00:13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>821.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-30 01:19:49</t>
+          <t>2022-01-06 00:30:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>803.0</t>
+          <t>825.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-29 23:46:32</t>
+          <t>2022-01-05 23:46:19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-03 17:23:49</t>
+          <t>2022-01-05 23:52:37</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-30 06:23:31</t>
+          <t>2022-01-06 00:37:40</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>799.0</t>
+          <t>821.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-30 07:49:31</t>
+          <t>2022-01-06 07:08:37</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-30 08:59:07</t>
+          <t>2022-01-06 07:51:15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-29 23:58:08</t>
+          <t>2022-01-06 06:33:26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-30 06:56:08</t>
+          <t>2022-01-06 06:56:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-30 03:36:53</t>
+          <t>2022-01-06 02:55:17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-30 14:46:01</t>
+          <t>2022-01-06 16:53:21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-30 14:46:40</t>
+          <t>2022-01-06 16:53:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:17</t>
+          <t>2022-01-06 14:12:17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-31 16:34:40</t>
+          <t>2022-01-06 12:46:37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>807.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-30 10:11:47</t>
+          <t>2022-01-06 10:30:58</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-30 09:55:20</t>
+          <t>2022-01-06 09:44:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-30 14:11:19</t>
+          <t>2022-01-06 11:06:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-30 10:47:22</t>
+          <t>2022-01-06 12:25:32</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:25</t>
+          <t>2022-01-06 09:55:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>795.0</t>
+          <t>817.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-30 09:59:39</t>
+          <t>2022-01-06 10:01:18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:10</t>
+          <t>2022-01-06 09:55:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>804.0</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-30 10:04:07</t>
+          <t>2022-01-06 10:04:18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-31 11:05:05</t>
+          <t>2022-01-06 16:40:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>806.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-30 08:42:52</t>
+          <t>2022-01-06 09:56:53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-30 09:07:08</t>
+          <t>2022-01-06 09:52:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>802.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-30 09:18:59</t>
+          <t>2022-01-06 09:36:21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-30 13:43:24</t>
+          <t>2022-01-06 16:13:38</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-30 14:53:50</t>
+          <t>2022-01-06 14:55:25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:16</t>
+          <t>2022-01-06 09:54:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>801.0</t>
+          <t>823.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-30 10:29:59</t>
+          <t>2022-01-06 08:52:12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>803.0</t>
+          <t>825.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-30 08:36:33</t>
+          <t>2022-01-06 09:25:05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>805.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-30 08:26:42</t>
+          <t>2022-01-07 10:02:33</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>798.0</t>
+          <t>820.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-06 07:29:44</t>
+          <t>2022-01-07 20:03:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>792.0</t>
+          <t>808.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-06 07:07:22</t>
+          <t>2022-01-10 14:19:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-11-30 16:50:23</t>
+          <t>2022-01-10 18:38:44</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-10 14:19:18</t>
+          <t>2022-01-11 14:00:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>817.0</t>
+          <t>818.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-06 08:16:51</t>
+          <t>2022-01-12 17:53:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-11 14:00:06</t>
+          <t>2022-01-13 07:19:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>830.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-05 23:01:48</t>
+          <t>2022-01-13 00:09:03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-06 00:27:30</t>
+          <t>2022-01-12 23:37:21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-06 07:04:08</t>
+          <t>2022-01-13 07:00:20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-06 00:05:05</t>
+          <t>2022-01-13 00:07:58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-05 23:58:45</t>
+          <t>2022-01-12 23:53:09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>820.0</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-05 23:48:28</t>
+          <t>2022-01-12 23:46:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-05 21:32:35</t>
+          <t>2022-01-12 20:57:43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>815.0</t>
+          <t>821.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-06 07:49:51</t>
+          <t>2022-01-13 07:17:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-05 23:58:43</t>
+          <t>2022-01-13 00:04:55</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>825.0</t>
+          <t>831.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-06 00:00:12</t>
+          <t>2022-01-13 00:12:42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-06 00:00:13</t>
+          <t>2022-01-12 23:25:21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>821.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-06 00:30:00</t>
+          <t>2022-01-13 07:30:36</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>825.0</t>
+          <t>831.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-05 23:46:19</t>
+          <t>2022-01-13 05:29:05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-05 23:52:37</t>
+          <t>2022-01-13 00:02:30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-06 00:37:40</t>
+          <t>2022-01-12 23:53:08</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>821.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-06 07:08:37</t>
+          <t>2022-01-13 07:55:49</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-06 16:53:21</t>
+          <t>2022-01-13 14:12:40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-06 16:53:50</t>
+          <t>2022-01-13 14:14:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-06 00:42:15</t>
+          <t>2022-01-13 09:54:04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>830.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-06 14:12:17</t>
+          <t>2022-01-13 11:29:25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-06 12:46:37</t>
+          <t>2022-01-13 08:46:09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-06 10:30:58</t>
+          <t>2022-01-13 11:09:25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-06 09:44:10</t>
+          <t>2022-01-13 09:20:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-06 11:06:50</t>
+          <t>2022-01-13 10:01:23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-06 12:25:32</t>
+          <t>2022-01-13 11:07:21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-06 09:55:33</t>
+          <t>2022-01-13 09:52:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>818.0</t>
+          <t>824.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-06 10:01:18</t>
+          <t>2022-01-13 10:06:36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-06 09:55:36</t>
+          <t>2022-01-13 10:11:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>832.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-06 10:04:18</t>
+          <t>2022-01-13 10:01:34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-06 16:40:04</t>
+          <t>2022-01-13 10:00:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-07 10:02:33</t>
+          <t>2022-01-13 08:51:47</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>820.0</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-07 20:03:01</t>
+          <t>2022-01-13 09:31:18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>808.0</t>
+          <t>814.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-06 09:56:53</t>
+          <t>2022-01-13 09:19:22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-06 09:52:51</t>
+          <t>2022-01-13 08:43:42</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-06 09:36:21</t>
+          <t>2022-01-13 10:02:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-06 14:55:25</t>
+          <t>2022-01-13 17:08:21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-06 07:51:15</t>
+          <t>2022-01-13 13:21:52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-06 06:33:26</t>
+          <t>2022-01-13 10:59:11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-06 09:54:52</t>
+          <t>2022-01-13 10:03:34</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>823.0</t>
+          <t>829.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-06 08:52:12</t>
+          <t>2022-01-13 14:08:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>825.0</t>
+          <t>831.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-06 09:25:05</t>
+          <t>2022-01-13 10:18:52</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-06 02:55:17</t>
+          <t>2022-01-13 11:15:02</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-13 07:19:18</t>
+          <t>2022-01-14 14:11:26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-06 06:56:59</t>
+          <t>2022-01-14 17:03:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-13 08:46:09</t>
+          <t>2022-01-15 07:49:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>830.0</t>
+          <t>828.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-14 14:11:26</t>
+          <t>2022-01-17 14:04:29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-17 14:04:29</t>
+          <t>2022-01-18 14:13:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-18 14:13:13</t>
+          <t>2022-01-20 07:07:15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-12 23:37:21</t>
+          <t>2022-01-19 23:31:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-13 07:00:20</t>
+          <t>2022-01-20 07:05:25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-13 00:07:58</t>
+          <t>2022-01-20 00:06:19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-12 23:53:09</t>
+          <t>2022-01-19 23:42:37</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>832.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-12 23:46:00</t>
+          <t>2022-01-19 23:45:21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-12 20:57:43</t>
+          <t>2022-01-19 20:58:17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>821.0</t>
+          <t>827.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-13 07:17:26</t>
+          <t>2022-01-20 07:17:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-13 00:04:55</t>
+          <t>2022-01-20 00:52:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>831.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-13 00:12:42</t>
+          <t>2022-01-19 23:51:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-12 23:25:21</t>
+          <t>2022-01-19 23:59:41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-13 05:29:05</t>
+          <t>2022-01-20 07:41:12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-13 00:02:30</t>
+          <t>2022-01-20 00:01:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-13 13:21:52</t>
+          <t>2022-01-20 00:14:17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-13 10:59:11</t>
+          <t>2022-01-20 07:25:18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-14 17:03:59</t>
+          <t>2022-01-20 07:35:15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-13 14:12:40</t>
+          <t>2022-01-20 17:30:23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-13 14:14:38</t>
+          <t>2022-01-20 17:30:45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-13 09:54:04</t>
+          <t>2022-01-20 09:54:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-13 11:29:25</t>
+          <t>2022-01-20 10:59:47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-13 11:09:25</t>
+          <t>2022-01-20 09:34:19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-13 09:20:50</t>
+          <t>2022-01-20 09:16:31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-13 10:01:23</t>
+          <t>2022-01-20 12:52:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-13 11:07:21</t>
+          <t>2022-01-20 11:17:38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-13 09:52:42</t>
+          <t>2022-01-20 09:51:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>824.0</t>
+          <t>830.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-13 10:06:36</t>
+          <t>2022-01-20 10:04:08</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-13 10:11:00</t>
+          <t>2022-01-20 10:10:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>832.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-13 10:01:34</t>
+          <t>2022-01-20 10:02:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-13 10:00:15</t>
+          <t>2022-01-20 10:00:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>832.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-13 09:31:18</t>
+          <t>2022-01-20 09:11:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>814.0</t>
+          <t>820.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-13 09:19:22</t>
+          <t>2022-01-20 10:17:09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>828.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-13 08:43:42</t>
+          <t>2022-01-20 10:27:52</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-13 10:02:00</t>
+          <t>2022-01-20 08:57:27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>835.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-01-06 16:13:38</t>
+          <t>2022-01-20 19:08:56</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-13 07:30:36</t>
+          <t>2022-01-20 09:47:03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>831.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-12 23:53:08</t>
+          <t>2022-01-20 13:14:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-13 07:55:49</t>
+          <t>2022-01-20 08:12:41</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-13 10:03:34</t>
+          <t>2022-01-20 10:03:58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-13 14:08:40</t>
+          <t>2022-01-20 11:09:36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>831.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-13 11:15:02</t>
+          <t>2022-01-20 10:47:27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-13 17:08:21</t>
+          <t>2022-01-20 21:44:58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>829.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-20 07:07:15</t>
+          <t>2022-01-21 11:52:55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-13 00:09:03</t>
+          <t>2022-01-21 11:18:56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-20 09:51:42</t>
+          <t>2022-01-21 10:09:49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>830.0</t>
+          <t>831.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-13 08:51:47</t>
+          <t>2022-01-21 13:21:53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-12 17:53:56</t>
+          <t>2022-01-22 10:33:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>834.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-21 11:52:55</t>
+          <t>2022-01-27 07:03:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-19 23:31:30</t>
+          <t>2022-01-26 23:11:31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-20 07:05:25</t>
+          <t>2022-01-27 06:50:22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-19 23:42:37</t>
+          <t>2022-01-26 23:55:46</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>832.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-19 23:45:21</t>
+          <t>2022-01-26 23:50:19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-20 09:11:50</t>
+          <t>2022-01-27 07:09:14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>820.0</t>
+          <t>826.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-20 07:17:58</t>
+          <t>2022-01-27 07:16:24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>842.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-20 00:52:08</t>
+          <t>2022-01-27 01:56:36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>844.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-19 23:51:15</t>
+          <t>2022-01-26 23:54:35</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-19 23:59:41</t>
+          <t>2022-01-26 23:45:20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-20 07:41:12</t>
+          <t>2022-01-26 23:45:58</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-20 00:01:45</t>
+          <t>2022-01-27 00:03:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>843.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-20 08:12:41</t>
+          <t>2022-01-27 07:24:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-20 07:35:15</t>
+          <t>2022-01-27 07:23:18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-20 10:47:27</t>
+          <t>2022-01-27 04:31:13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-20 17:30:23</t>
+          <t>2022-01-27 15:37:42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-20 17:30:45</t>
+          <t>2022-01-27 15:38:25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-20 09:54:00</t>
+          <t>2022-01-27 10:03:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-20 10:59:47</t>
+          <t>2022-01-27 11:09:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-22 10:33:56</t>
+          <t>2022-01-27 19:15:35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-15 07:49:55</t>
+          <t>2022-01-27 08:46:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-20 09:34:19</t>
+          <t>2022-01-27 08:29:08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-20 09:16:31</t>
+          <t>2022-01-27 09:25:09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-20 12:52:58</t>
+          <t>2022-01-27 10:49:06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-20 11:17:38</t>
+          <t>2022-01-27 10:22:18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-21 10:09:49</t>
+          <t>2022-01-27 16:46:09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>831.0</t>
+          <t>836.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-20 10:04:08</t>
+          <t>2022-01-27 10:04:49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-20 10:10:43</t>
+          <t>2022-01-27 10:17:56</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>844.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-20 10:02:55</t>
+          <t>2022-01-27 10:06:33</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-20 10:00:15</t>
+          <t>2022-01-27 10:00:42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-21 13:21:53</t>
+          <t>2022-01-27 12:57:20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>832.0</t>
+          <t>838.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-19 20:58:17</t>
+          <t>2022-01-27 11:54:56</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>827.0</t>
+          <t>833.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-20 10:17:09</t>
+          <t>2022-01-27 09:11:16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-20 10:27:52</t>
+          <t>2022-01-27 08:37:05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>842.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-20 08:57:27</t>
+          <t>2022-01-27 09:20:29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-20 21:44:58</t>
+          <t>2022-01-27 14:56:46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>843.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-20 09:47:03</t>
+          <t>2022-01-27 08:30:55</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>845.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-20 13:14:00</t>
+          <t>2022-01-27 10:49:30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>834.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-20 00:14:17</t>
+          <t>2022-01-27 08:42:42</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-20 10:03:58</t>
+          <t>2022-01-27 09:55:59</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>843.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-20 11:09:36</t>
+          <t>2022-01-27 09:03:41</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>845.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-21 11:18:56</t>
+          <t>2022-01-28 14:28:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>842.0</t>
+          <t>841.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>844.0</t>
+          <t>845.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-20 07:25:18</t>
+          <t>2022-01-28 08:27:38</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>843.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-27 08:46:57</t>
+          <t>2022-01-29 17:00:12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-27 07:03:13</t>
+          <t>2022-01-31 13:59:39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-13 10:18:52</t>
+          <t>2022-01-31 14:20:12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>835.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-31 13:59:39</t>
+          <t>2022-02-03 07:17:28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-28 14:28:18</t>
+          <t>2022-02-03 00:01:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-26 23:11:31</t>
+          <t>2022-02-03 00:05:16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-27 10:03:10</t>
+          <t>2022-02-03 00:02:36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-27 06:50:22</t>
+          <t>2022-02-03 07:11:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-27 08:29:08</t>
+          <t>2022-02-03 08:22:56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-26 23:55:46</t>
+          <t>2022-02-02 23:59:57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>844.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-26 23:50:19</t>
+          <t>2022-02-02 23:48:16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-27 11:54:56</t>
+          <t>2022-02-02 22:31:45</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>833.0</t>
+          <t>840.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-27 07:16:24</t>
+          <t>2022-02-03 07:35:33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-27 01:56:36</t>
+          <t>2022-02-03 06:33:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>845.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-26 23:54:35</t>
+          <t>2022-02-02 23:57:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-26 23:45:20</t>
+          <t>2022-02-02 23:41:33</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-27 08:30:55</t>
+          <t>2022-02-03 00:31:20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>845.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-26 23:45:58</t>
+          <t>2022-02-02 23:40:33</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-27 00:03:19</t>
+          <t>2022-02-03 00:15:02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>843.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-27 07:24:01</t>
+          <t>2022-02-03 08:21:42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-28 08:27:38</t>
+          <t>2022-02-02 23:56:27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>843.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-27 07:23:18</t>
+          <t>2022-02-03 06:49:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-27 04:31:13</t>
+          <t>2022-02-03 04:10:27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>855.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-27 15:37:42</t>
+          <t>2022-02-03 16:56:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-27 15:38:25</t>
+          <t>2022-02-03 16:56:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-27 11:09:53</t>
+          <t>2022-02-03 09:01:54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-29 17:00:12</t>
+          <t>2022-02-03 09:10:21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>855.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-27 09:25:09</t>
+          <t>2022-02-03 11:12:36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-27 10:22:18</t>
+          <t>2022-02-03 09:30:31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-27 16:46:09</t>
+          <t>2022-02-03 09:55:06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>836.0</t>
+          <t>842.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-27 10:04:49</t>
+          <t>2022-02-03 10:04:47</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-27 10:17:56</t>
+          <t>2022-02-03 10:02:52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>844.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-27 10:06:33</t>
+          <t>2022-02-03 10:03:09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-27 10:00:42</t>
+          <t>2022-02-03 10:12:39</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-27 12:57:20</t>
+          <t>2022-02-03 14:02:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>838.0</t>
+          <t>844.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-27 09:11:16</t>
+          <t>2022-02-03 10:12:10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-27 08:37:05</t>
+          <t>2022-02-03 09:21:48</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>842.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-27 09:20:29</t>
+          <t>2022-02-03 10:02:55</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-01-20 19:08:56</t>
+          <t>2022-02-03 16:39:49</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-27 14:56:46</t>
+          <t>2022-02-03 15:20:41</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>843.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-27 10:49:30</t>
+          <t>2022-02-03 16:23:42</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>841.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-27 08:42:42</t>
+          <t>2022-02-03 11:05:40</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-27 09:55:59</t>
+          <t>2022-02-03 10:02:11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>843.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-27 09:03:41</t>
+          <t>2022-02-03 11:00:29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>845.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-31 14:20:12</t>
+          <t>2022-02-03 12:25:13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>855.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-27 19:15:35</t>
+          <t>2022-02-04 08:19:48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-27 07:09:14</t>
+          <t>2022-02-04 19:52:15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>832.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-03 07:17:28</t>
+          <t>2022-02-05 13:51:41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>847.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-05 13:51:41</t>
+          <t>2022-02-08 12:35:49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>855.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-03 04:10:27</t>
+          <t>2022-02-08 23:04:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>855.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-08 12:35:49</t>
+          <t>2022-02-10 06:32:02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-03 00:01:05</t>
+          <t>2022-02-10 00:06:39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-03 16:56:00</t>
+          <t>2022-02-10 07:23:09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-03 16:56:38</t>
+          <t>2022-02-10 07:23:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-03 00:05:16</t>
+          <t>2022-02-10 00:08:28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-03 00:02:36</t>
+          <t>2022-02-10 00:36:56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-03 07:11:11</t>
+          <t>2022-02-10 06:48:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-20 00:06:19</t>
+          <t>2022-02-10 00:05:10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-02 23:59:57</t>
+          <t>2022-02-09 23:50:15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>844.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-02 23:48:16</t>
+          <t>2022-02-09 23:46:26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-04 19:52:15</t>
+          <t>2022-02-10 08:28:38</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>832.0</t>
+          <t>839.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-02 22:31:45</t>
+          <t>2022-02-10 07:09:22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>846.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-03 07:35:33</t>
+          <t>2022-02-10 07:18:42</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-03 09:21:48</t>
+          <t>2022-02-10 08:20:32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-03 06:33:08</t>
+          <t>2022-02-10 00:42:51</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-02 23:57:15</t>
+          <t>2022-02-09 23:58:43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-02 23:41:33</t>
+          <t>2022-02-09 23:39:32</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-03 00:31:20</t>
+          <t>2022-02-10 08:36:42</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-02 23:40:33</t>
+          <t>2022-02-09 23:48:37</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-03 00:15:02</t>
+          <t>2022-02-10 08:36:07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-03 08:21:42</t>
+          <t>2022-02-10 07:23:57</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-02 23:56:27</t>
+          <t>2022-02-09 23:44:09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-03 06:49:31</t>
+          <t>2022-02-10 07:15:55</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-08 23:04:39</t>
+          <t>2022-02-10 02:30:57</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>861.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-03 09:01:54</t>
+          <t>2022-02-10 09:02:29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-03 09:10:21</t>
+          <t>2022-02-10 14:27:42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>861.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-03 08:22:56</t>
+          <t>2022-02-10 08:58:27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-03 11:12:36</t>
+          <t>2022-02-10 11:27:57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-27 10:49:06</t>
+          <t>2022-02-10 10:58:46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-03 09:30:31</t>
+          <t>2022-02-10 10:24:49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-03 09:55:06</t>
+          <t>2022-02-10 09:56:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>842.0</t>
+          <t>848.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-03 10:04:47</t>
+          <t>2022-02-10 10:02:35</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:52</t>
+          <t>2022-02-10 10:13:14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-03 10:03:09</t>
+          <t>2022-02-10 10:03:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-03 10:12:39</t>
+          <t>2022-02-10 09:59:17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-03 14:02:58</t>
+          <t>2022-02-10 11:41:53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>844.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-03 10:12:10</t>
+          <t>2022-02-10 11:11:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:55</t>
+          <t>2022-02-10 09:14:58</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>853.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-03 16:39:49</t>
+          <t>2022-02-10 18:18:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:11</t>
+          <t>2022-02-10 09:56:03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-03 11:00:29</t>
+          <t>2022-02-10 11:18:13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-03 12:25:13</t>
+          <t>2022-02-10 12:13:42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>855.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-03 15:20:41</t>
+          <t>2022-02-10 21:57:11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-10 02:30:57</t>
+          <t>2022-02-11 06:26:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>861.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>861.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>861.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-02-04 08:19:48</t>
+          <t>2022-02-14 17:49:08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-10 11:41:53</t>
+          <t>2022-02-16 12:21:53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-03 16:23:42</t>
+          <t>2022-02-16 13:10:47</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-03 11:05:40</t>
+          <t>2022-02-16 11:35:56</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-10 00:06:39</t>
+          <t>2022-02-16 23:52:02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:09</t>
+          <t>2022-02-17 00:40:32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:42</t>
+          <t>2022-02-17 00:41:06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-10 00:08:28</t>
+          <t>2022-02-17 00:47:52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-10 00:36:56</t>
+          <t>2022-02-17 00:02:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-10 06:48:00</t>
+          <t>2022-02-17 06:43:26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-09 23:50:15</t>
+          <t>2022-02-17 00:02:53</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-09 23:46:26</t>
+          <t>2022-02-16 23:46:43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-10 08:28:38</t>
+          <t>2022-02-17 07:11:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>839.0</t>
+          <t>845.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-10 07:09:22</t>
+          <t>2022-02-16 21:06:32</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>846.0</t>
+          <t>852.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-10 07:18:42</t>
+          <t>2022-02-17 07:17:59</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-10 00:42:51</t>
+          <t>2022-02-17 00:21:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-09 23:58:43</t>
+          <t>2022-02-17 00:05:04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-09 23:39:32</t>
+          <t>2022-02-16 23:30:31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-10 08:36:42</t>
+          <t>2022-02-17 01:04:15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-09 23:48:37</t>
+          <t>2022-02-16 23:47:25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-10 08:36:07</t>
+          <t>2022-02-17 00:05:31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-16 13:10:47</t>
+          <t>2022-02-17 00:59:15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:57</t>
+          <t>2022-02-17 07:48:59</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-09 23:44:09</t>
+          <t>2022-02-16 23:52:19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-11 06:26:39</t>
+          <t>2022-02-17 04:31:38</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>868.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-10 06:32:02</t>
+          <t>2022-02-17 08:59:21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-10 09:02:29</t>
+          <t>2022-02-17 09:30:44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-10 14:27:42</t>
+          <t>2022-02-17 12:47:48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>867.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-10 08:58:27</t>
+          <t>2022-02-17 10:16:17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-10 11:27:57</t>
+          <t>2022-02-17 10:00:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-10 10:24:49</t>
+          <t>2022-02-17 11:39:26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-10 09:56:02</t>
+          <t>2022-02-17 09:56:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>848.0</t>
+          <t>854.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-10 10:02:35</t>
+          <t>2022-02-17 10:00:24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-10 10:13:14</t>
+          <t>2022-02-17 10:04:56</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-10 10:03:27</t>
+          <t>2022-02-17 09:59:06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-10 09:59:17</t>
+          <t>2022-02-17 10:00:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-16 12:21:53</t>
+          <t>2022-02-17 12:11:21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>850.0</t>
+          <t>856.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-10 11:11:31</t>
+          <t>2022-02-17 09:21:43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-10 08:20:32</t>
+          <t>2022-02-17 09:13:40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-10 21:57:11</t>
+          <t>2022-02-17 14:55:46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-16 11:35:56</t>
+          <t>2022-02-17 10:04:52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-10 07:15:55</t>
+          <t>2022-02-17 08:12:39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>866.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-10 09:56:03</t>
+          <t>2022-02-17 09:56:22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-10 11:18:13</t>
+          <t>2022-02-17 09:39:25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-10 09:14:58</t>
+          <t>2022-02-18 08:10:30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>853.0</t>
+          <t>859.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-10 10:58:46</t>
+          <t>2022-02-18 09:56:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-10 12:13:42</t>
+          <t>2022-02-18 10:40:11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>861.0</t>
+          <t>867.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-17 08:59:21</t>
+          <t>2022-02-22 10:22:19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-16 23:52:02</t>
+          <t>2022-02-24 00:01:41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-17 00:40:32</t>
+          <t>2022-02-24 07:21:32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-17 00:41:06</t>
+          <t>2022-02-24 07:22:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-17 00:47:52</t>
+          <t>2022-02-23 23:46:54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-17 00:02:42</t>
+          <t>2022-02-24 00:05:49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-17 06:43:26</t>
+          <t>2022-02-24 06:54:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-17 00:02:53</t>
+          <t>2022-02-23 23:47:21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-16 23:46:43</t>
+          <t>2022-02-24 00:12:42</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-16 21:06:32</t>
+          <t>2022-02-23 22:13:26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>852.0</t>
+          <t>858.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-17 07:17:59</t>
+          <t>2022-02-24 07:22:59</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-17 00:21:08</t>
+          <t>2022-02-24 01:37:42</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-17 00:05:04</t>
+          <t>2022-02-24 00:37:32</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-16 23:30:31</t>
+          <t>2022-02-23 23:36:45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>867.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-17 01:04:15</t>
+          <t>2022-02-24 00:08:24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-16 23:47:25</t>
+          <t>2022-02-23 23:46:40</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-17 00:05:31</t>
+          <t>2022-02-24 00:48:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-17 07:48:59</t>
+          <t>2022-02-24 07:36:16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-16 23:52:19</t>
+          <t>2022-02-23 23:42:47</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-17 08:12:39</t>
+          <t>2022-02-24 07:10:29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-17 04:31:38</t>
+          <t>2022-02-24 03:18:07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>868.0</t>
+          <t>874.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-22 10:22:19</t>
+          <t>2022-02-24 16:59:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>872.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-17 09:30:44</t>
+          <t>2022-02-24 08:55:39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-17 12:47:48</t>
+          <t>2022-02-24 08:48:04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>867.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-17 10:16:17</t>
+          <t>2022-02-24 11:07:21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:16</t>
+          <t>2022-02-24 12:03:46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-17 11:39:26</t>
+          <t>2022-02-24 11:44:07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-17 09:56:42</t>
+          <t>2022-02-24 10:00:52</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>854.0</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:24</t>
+          <t>2022-02-24 10:05:25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-17 10:04:56</t>
+          <t>2022-02-24 10:11:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>868.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-17 09:59:06</t>
+          <t>2022-02-24 10:03:38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:04</t>
+          <t>2022-02-24 10:00:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-17 12:11:21</t>
+          <t>2022-02-24 09:02:05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>856.0</t>
+          <t>862.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-17 07:11:39</t>
+          <t>2022-02-24 14:06:36</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>845.0</t>
+          <t>851.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-17 09:21:43</t>
+          <t>2022-02-24 08:47:13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-17 09:13:40</t>
+          <t>2022-02-24 08:25:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-18 08:10:30</t>
+          <t>2022-02-24 11:29:22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-10 18:18:22</t>
+          <t>2022-02-24 15:54:32</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-17 14:55:46</t>
+          <t>2022-02-24 14:55:40</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-17 10:04:52</t>
+          <t>2022-02-24 09:17:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>866.0</t>
+          <t>873.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-17 09:56:22</t>
+          <t>2022-02-24 10:11:20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-17 09:39:25</t>
+          <t>2022-02-24 09:04:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-18 09:56:00</t>
+          <t>2022-02-25 09:36:02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-01-10 18:38:44</t>
+          <t>2022-02-25 18:42:54</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-17 00:59:15</t>
+          <t>2022-02-25 15:50:49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>867.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>872.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-24 16:59:08</t>
+          <t>2022-02-28 14:09:09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-24 00:01:41</t>
+          <t>2022-03-03 00:01:25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-24 07:21:32</t>
+          <t>2022-03-03 01:19:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-24 07:22:38</t>
+          <t>2022-03-03 01:20:44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-23 23:46:54</t>
+          <t>2022-03-02 22:35:16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-24 00:05:49</t>
+          <t>2022-03-03 07:59:55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-24 06:54:40</t>
+          <t>2022-03-03 06:52:45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-02-10 00:05:10</t>
+          <t>2022-03-03 00:28:19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-23 23:47:21</t>
+          <t>2022-03-02 23:43:50</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-24 00:12:42</t>
+          <t>2022-03-02 23:49:45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-24 14:06:36</t>
+          <t>2022-03-02 22:58:27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>851.0</t>
+          <t>857.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-23 22:13:26</t>
+          <t>2022-03-02 20:43:48</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>858.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-24 07:22:59</t>
+          <t>2022-03-03 07:26:45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>872.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-24 00:37:32</t>
+          <t>2022-03-02 23:58:50</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-23 23:36:45</t>
+          <t>2022-03-02 23:31:28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>867.0</t>
+          <t>874.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-24 00:08:24</t>
+          <t>2022-03-03 00:57:52</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-23 23:46:40</t>
+          <t>2022-03-02 23:44:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-24 00:48:19</t>
+          <t>2022-03-03 00:03:05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-24 07:36:16</t>
+          <t>2022-03-03 07:31:13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-23 23:42:47</t>
+          <t>2022-03-02 23:45:23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-24 07:10:29</t>
+          <t>2022-03-03 06:53:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-24 03:18:07</t>
+          <t>2022-03-03 02:12:16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>874.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-28 14:09:09</t>
+          <t>2022-03-03 10:35:57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-24 08:55:39</t>
+          <t>2022-03-03 08:50:15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-24 08:48:04</t>
+          <t>2022-03-03 09:25:52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-24 11:07:21</t>
+          <t>2022-03-03 10:18:55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-24 12:03:46</t>
+          <t>2022-03-03 09:35:37</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-25 09:36:02</t>
+          <t>2022-03-03 09:42:25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-24 11:44:07</t>
+          <t>2022-03-03 11:39:48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-24 10:00:52</t>
+          <t>2022-03-03 09:49:06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>860.0</t>
+          <t>867.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-24 10:05:25</t>
+          <t>2022-03-03 10:12:14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-24 10:11:22</t>
+          <t>2022-03-03 09:58:48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>868.0</t>
+          <t>875.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-24 10:03:38</t>
+          <t>2022-03-03 10:13:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-24 10:00:05</t>
+          <t>2022-03-03 10:00:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-24 09:02:05</t>
+          <t>2022-03-03 14:29:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>862.0</t>
+          <t>869.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-24 08:47:13</t>
+          <t>2022-03-03 09:12:05</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-24 08:25:51</t>
+          <t>2022-03-03 10:59:01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>872.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-24 11:29:22</t>
+          <t>2022-03-03 17:19:18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>872.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-24 15:54:32</t>
+          <t>2022-03-03 15:54:11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-25 15:50:49</t>
+          <t>2022-03-03 13:29:28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>867.0</t>
+          <t>874.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-24 09:17:07</t>
+          <t>2022-03-03 11:24:21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>873.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-24 10:11:20</t>
+          <t>2022-03-03 10:13:15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-24 09:04:00</t>
+          <t>2022-03-03 09:02:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-02-14 17:49:08</t>
+          <t>2022-03-04 08:57:55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-18 10:40:11</t>
+          <t>2022-03-04 09:42:32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>867.0</t>
+          <t>881.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-24 14:55:40</t>
+          <t>2022-03-04 14:04:13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-24 01:37:42</t>
+          <t>2022-03-04 14:15:02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COMERCIAL MALLKU LTDA. RUT: 76842810-7</t>
+          <t>COMERCIAL ELIZABETH OCARANZA LTDA.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
     </row>

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-03 10:35:57</t>
+          <t>2022-03-08 14:16:46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-04 09:42:32</t>
+          <t>2022-03-08 12:26:58</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>881.0</t>
+          <t>880.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-02 20:43:48</t>
+          <t>2022-03-09 19:26:24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>870.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-08 14:16:46</t>
+          <t>2022-03-10 07:31:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>886.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-03 00:01:25</t>
+          <t>2022-03-10 05:38:47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-03 01:19:30</t>
+          <t>2022-03-10 06:32:51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-03 01:20:44</t>
+          <t>2022-03-10 06:33:29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-02 22:35:16</t>
+          <t>2022-03-09 22:50:08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-03 07:59:55</t>
+          <t>2022-03-10 00:57:23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-03 06:52:45</t>
+          <t>2022-03-10 06:52:17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-03 00:28:19</t>
+          <t>2022-03-10 00:12:36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-02 23:43:50</t>
+          <t>2022-03-09 23:43:07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-02 23:49:45</t>
+          <t>2022-03-09 23:57:11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-02 22:58:27</t>
+          <t>2022-03-09 23:42:03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>857.0</t>
+          <t>864.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-03 09:12:05</t>
+          <t>2022-03-10 08:45:04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-03 07:26:45</t>
+          <t>2022-03-10 07:20:36</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-03 10:59:01</t>
+          <t>2022-03-10 08:34:34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-02 23:58:50</t>
+          <t>2022-03-10 00:00:53</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-02 23:31:28</t>
+          <t>2022-03-09 23:30:54</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>874.0</t>
+          <t>881.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-03 00:57:52</t>
+          <t>2022-03-10 08:09:05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-02 23:44:01</t>
+          <t>2022-03-09 23:47:22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-03 00:03:05</t>
+          <t>2022-03-09 23:41:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-03 07:31:13</t>
+          <t>2022-03-10 07:47:29</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-02 23:45:23</t>
+          <t>2022-03-09 23:50:51</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-03 06:53:28</t>
+          <t>2022-03-10 06:56:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-03 02:12:16</t>
+          <t>2022-03-10 04:39:46</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-03 08:50:15</t>
+          <t>2022-03-10 09:46:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-04 08:57:55</t>
+          <t>2022-03-10 20:31:22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-03 09:25:52</t>
+          <t>2022-03-10 12:15:06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>886.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-03 10:18:55</t>
+          <t>2022-03-10 10:35:11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-03 09:42:25</t>
+          <t>2022-03-10 09:31:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-03 11:39:48</t>
+          <t>2022-03-10 11:28:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-03 09:49:06</t>
+          <t>2022-03-10 09:53:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>867.0</t>
+          <t>874.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-03 10:12:14</t>
+          <t>2022-03-10 10:07:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-03 09:58:48</t>
+          <t>2022-03-10 09:54:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>875.0</t>
+          <t>882.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-03 10:13:27</t>
+          <t>2022-03-10 10:09:23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-03 10:00:04</t>
+          <t>2022-03-10 10:00:11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-02-25 18:42:54</t>
+          <t>2022-03-10 10:54:58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-03 14:29:58</t>
+          <t>2022-03-10 12:25:59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>869.0</t>
+          <t>876.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-03 17:19:18</t>
+          <t>2022-03-10 09:11:15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>879.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-03 15:54:11</t>
+          <t>2022-03-10 15:08:26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-04 14:04:13</t>
+          <t>2022-03-10 15:00:35</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-03 11:24:21</t>
+          <t>2022-03-10 10:17:43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-03 10:13:15</t>
+          <t>2022-03-10 10:02:07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-03 09:02:40</t>
+          <t>2022-03-10 16:30:22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-08 12:26:58</t>
+          <t>2022-03-10 11:33:38</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>880.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-04 14:15:02</t>
+          <t>2022-03-10 22:37:21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-03-10 10:54:58</t>
+          <t>2022-03-11 17:29:04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-10 08:09:05</t>
+          <t>2022-03-11 18:24:10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-03 13:29:28</t>
+          <t>2022-03-11 17:02:49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>874.0</t>
+          <t>881.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-03 09:35:37</t>
+          <t>2022-03-14 12:07:07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-09 19:26:24</t>
+          <t>2022-03-16 20:35:31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>870.0</t>
+          <t>877.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-10 07:31:35</t>
+          <t>2022-03-17 07:17:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>886.0</t>
+          <t>893.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-10 05:38:47</t>
+          <t>2022-03-16 23:02:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-10 06:32:51</t>
+          <t>2022-03-17 00:24:10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-10 06:33:29</t>
+          <t>2022-03-17 00:24:56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-09 22:50:08</t>
+          <t>2022-03-16 23:58:27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-10 06:52:17</t>
+          <t>2022-03-17 06:45:08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-10 00:12:36</t>
+          <t>2022-03-17 00:06:06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-10 20:31:22</t>
+          <t>2022-03-17 08:27:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-09 23:43:07</t>
+          <t>2022-03-16 23:30:27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-09 23:57:11</t>
+          <t>2022-03-16 23:45:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-09 23:42:03</t>
+          <t>2022-03-17 07:18:02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>864.0</t>
+          <t>871.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-10 08:45:04</t>
+          <t>2022-03-17 08:26:17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-10 07:20:36</t>
+          <t>2022-03-17 07:23:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>886.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-10 00:00:53</t>
+          <t>2022-03-16 23:59:13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-09 23:30:54</t>
+          <t>2022-03-16 23:32:47</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>881.0</t>
+          <t>888.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-11 18:24:10</t>
+          <t>2022-03-17 00:05:11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-09 23:47:22</t>
+          <t>2022-03-16 23:44:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-09 23:41:13</t>
+          <t>2022-03-17 00:04:26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>890.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-09 23:50:51</t>
+          <t>2022-03-16 23:43:16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>890.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-10 04:39:46</t>
+          <t>2022-03-17 01:25:25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-10 00:57:23</t>
+          <t>2022-03-17 09:42:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-10 09:46:53</t>
+          <t>2022-03-17 09:13:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-10 12:15:06</t>
+          <t>2022-03-17 09:06:14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>886.0</t>
+          <t>893.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-10 10:35:11</t>
+          <t>2022-03-17 10:05:52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-14 12:07:07</t>
+          <t>2022-03-17 09:21:11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-10 11:28:30</t>
+          <t>2022-03-17 12:41:37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-10 09:53:33</t>
+          <t>2022-03-17 10:24:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>874.0</t>
+          <t>881.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-10 10:07:53</t>
+          <t>2022-03-17 10:10:10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-10 09:54:36</t>
+          <t>2022-03-17 09:59:06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>882.0</t>
+          <t>889.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-10 10:09:23</t>
+          <t>2022-03-17 10:08:05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-10 10:00:11</t>
+          <t>2022-03-17 10:00:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-10 12:25:59</t>
+          <t>2022-03-17 13:52:56</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>876.0</t>
+          <t>883.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-10 08:34:34</t>
+          <t>2022-03-17 10:15:26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>886.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-10 09:11:15</t>
+          <t>2022-03-17 09:52:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>886.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-10 15:08:26</t>
+          <t>2022-03-17 16:09:07</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-10 15:00:35</t>
+          <t>2022-03-17 15:02:32</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>890.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-10 22:37:21</t>
+          <t>2022-03-17 14:39:04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-11 17:02:49</t>
+          <t>2022-03-17 12:05:09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>881.0</t>
+          <t>888.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-10 07:47:29</t>
+          <t>2022-03-17 09:11:07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-10 10:17:43</t>
+          <t>2022-03-17 14:08:03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-10 06:56:58</t>
+          <t>2022-03-17 09:04:02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-10 10:02:07</t>
+          <t>2022-03-17 10:04:18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>890.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-10 16:30:22</t>
+          <t>2022-03-17 09:19:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-17 07:17:14</t>
+          <t>2022-03-18 12:35:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-10 09:31:00</t>
+          <t>2022-03-18 09:37:57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>884.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-03-11 17:29:04</t>
+          <t>2022-03-18 16:29:31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-18 12:35:11</t>
+          <t>2022-03-21 14:07:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-17 10:24:27</t>
+          <t>2022-03-21 12:09:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-17 10:10:10</t>
+          <t>2022-03-21 13:05:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-17 09:59:06</t>
+          <t>2022-03-21 12:05:41</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-17 10:08:05</t>
+          <t>2022-03-21 12:16:24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-17 10:00:03</t>
+          <t>2022-03-21 12:07:23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-17 10:04:18</t>
+          <t>2022-03-21 12:14:37</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>INVERSIONES ISP SPA.</t>
+          <t>DISTRIBUIDORA Y COMERCIALIZADORA DE COMBUSTIBLE Y LUBRICANTES ALBA SPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-17 07:18:02</t>
+          <t>2022-03-23 21:03:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>871.0</t>
+          <t>878.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-16 23:02:18</t>
+          <t>2022-03-23 22:56:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-17 00:24:10</t>
+          <t>2022-03-24 07:51:54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-17 00:24:56</t>
+          <t>2022-03-24 07:52:34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-16 23:58:27</t>
+          <t>2022-03-24 03:46:40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-17 09:42:42</t>
+          <t>2022-03-24 00:14:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-17 06:45:08</t>
+          <t>2022-03-24 06:54:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-17 00:06:06</t>
+          <t>2022-03-24 01:31:08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-16 23:30:27</t>
+          <t>2022-03-23 23:33:12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>889.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-16 23:45:24</t>
+          <t>2022-03-24 00:01:36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-16 20:35:31</t>
+          <t>2022-03-23 22:18:52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>877.0</t>
+          <t>885.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-17 07:23:26</t>
+          <t>2022-03-24 07:23:55</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>886.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-17 14:39:04</t>
+          <t>2022-03-23 23:36:02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-16 23:59:13</t>
+          <t>2022-03-24 00:28:27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-16 23:32:47</t>
+          <t>2022-03-23 23:51:42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>888.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-17 00:05:11</t>
+          <t>2022-03-24 01:12:25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-16 23:44:03</t>
+          <t>2022-03-23 23:45:17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-17 00:04:26</t>
+          <t>2022-03-24 00:20:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>890.0</t>
+          <t>896.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-17 12:05:09</t>
+          <t>2022-03-24 01:49:29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>888.0</t>
+          <t>894.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-16 23:43:16</t>
+          <t>2022-03-23 23:43:01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>890.0</t>
+          <t>896.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-17 09:04:02</t>
+          <t>2022-03-24 06:54:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-17 01:25:25</t>
+          <t>2022-03-24 01:33:18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-21 14:07:18</t>
+          <t>2022-03-24 09:52:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>893.0</t>
+          <t>899.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-17 09:13:45</t>
+          <t>2022-03-24 10:06:32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-17 09:06:14</t>
+          <t>2022-03-24 08:36:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>893.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-18 09:37:57</t>
+          <t>2022-03-24 09:50:14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-17 12:41:37</t>
+          <t>2022-03-24 11:47:47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-21 12:09:51</t>
+          <t>2022-03-24 11:13:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>881.0</t>
+          <t>888.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-21 13:05:58</t>
+          <t>2022-03-24 10:03:34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-21 12:05:41</t>
+          <t>2022-03-24 10:20:53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>889.0</t>
+          <t>896.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-21 12:16:24</t>
+          <t>2022-03-24 10:05:32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-21 12:07:23</t>
+          <t>2022-03-24 10:00:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-17 13:52:56</t>
+          <t>2022-03-24 08:25:59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>883.0</t>
+          <t>889.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-17 08:26:17</t>
+          <t>2022-03-24 08:50:40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-17 10:15:26</t>
+          <t>2022-03-24 08:28:34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>886.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-17 09:52:59</t>
+          <t>2022-03-24 12:43:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>886.0</t>
+          <t>892.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-17 16:09:07</t>
+          <t>2022-03-24 16:03:41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-17 15:02:32</t>
+          <t>2022-03-24 14:51:20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>890.0</t>
+          <t>896.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-17 09:11:07</t>
+          <t>2022-03-24 09:59:39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-17 14:08:03</t>
+          <t>2022-03-24 08:33:37</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>896.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-21 12:14:37</t>
+          <t>2022-03-24 10:03:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>890.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-17 09:19:53</t>
+          <t>2022-03-24 08:33:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-10 11:33:38</t>
+          <t>2022-03-24 10:44:32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>901.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-17 09:21:11</t>
+          <t>2022-03-25 09:44:28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>888.0</t>
+          <t>887.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>896.0</t>
+          <t>895.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-24 09:52:08</t>
+          <t>2022-03-26 11:34:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-17 10:05:52</t>
+          <t>2022-03-28 20:33:07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>896.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-23 22:56:50</t>
+          <t>2022-03-30 23:32:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-24 07:51:54</t>
+          <t>2022-03-31 00:39:12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-24 07:52:34</t>
+          <t>2022-03-31 00:39:51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-24 00:14:24</t>
+          <t>2022-03-31 00:18:27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:40</t>
+          <t>2022-03-31 06:54:33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-24 01:31:08</t>
+          <t>2022-03-31 00:07:49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-24 08:25:59</t>
+          <t>2022-03-31 08:35:38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>889.0</t>
+          <t>895.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-23 23:33:12</t>
+          <t>2022-03-30 23:41:20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>889.0</t>
+          <t>895.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-24 00:01:36</t>
+          <t>2022-03-31 00:05:08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-23 21:03:39</t>
+          <t>2022-03-31 07:08:52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>884.0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-23 22:18:52</t>
+          <t>2022-03-30 21:51:01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>891.0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-24 07:23:55</t>
+          <t>2022-03-31 07:24:33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-24 08:28:34</t>
+          <t>2022-03-31 08:50:10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-23 23:36:02</t>
+          <t>2022-03-30 23:57:31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-24 00:28:27</t>
+          <t>2022-03-31 01:16:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-23 23:51:42</t>
+          <t>2022-03-31 00:03:17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-23 23:45:17</t>
+          <t>2022-03-30 23:46:51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-24 00:20:03</t>
+          <t>2022-03-30 23:59:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-23 23:43:01</t>
+          <t>2022-03-30 23:52:48</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:10</t>
+          <t>2022-03-31 07:05:44</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-24 01:33:18</t>
+          <t>2022-03-31 01:51:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>907.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_diesel.xlsx
+++ b/combustibles_vehicular_estaciones_diesel.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-26 11:34:14</t>
+          <t>2022-03-31 09:49:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>899.0</t>
+          <t>905.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-24 03:46:40</t>
+          <t>2022-03-31 12:15:48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-24 10:06:32</t>
+          <t>2022-03-31 14:54:29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-17 08:27:34</t>
+          <t>2022-03-31 09:26:35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-24 08:36:57</t>
+          <t>2022-03-31 08:53:11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-28 20:33:07</t>
+          <t>2022-03-31 11:09:17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-25 09:44:28</t>
+          <t>2022-03-31 09:30:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-24 09:50:14</t>
+          <t>2022-03-31 09:22:23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-24 11:47:47</t>
+          <t>2022-03-31 10:18:27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-24 11:13:51</t>
+          <t>2022-03-31 10:00:08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>887.0</t>
+          <t>893.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-24 10:03:34</t>
+          <t>2022-03-31 10:05:36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-24 10:20:53</t>
+          <t>2022-03-31 09:56:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>895.0</t>
+          <t>901.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-24 10:05:32</t>
+          <t>2022-03-31 10:11:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-24 10:00:05</t>
+          <t>2022-03-31 10:00:09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-24 08:50:40</t>
+          <t>2022-03-31 11:40:41</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>891.0</t>
+          <t>897.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-24 12:43:59</t>
+          <t>2022-03-31 13:41:35</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>892.0</t>
+          <t>898.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-24 16:03:41</t>
+          <t>2022-03-31 16:35:28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-24 14:51:20</t>
+          <t>2022-03-31 14:51:37</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>896.0</t>
+          <t>902.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-24 01:12:25</t>
+          <t>2022-03-31 15:52:33</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-24 01:49:29</t>
+          <t>2022-03-31 17:57:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>894.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-24 09:59:39</t>
+          <t>2022-03-31 09:15:55</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-24 08:33:37</t>
+          <t>2022-03-31 11:22:31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-24 10:03:00</t>
+          <t>2022-03-31 09:56:54</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>903.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-24 08:33:40</t>
+          <t>2022-03-31 08:58:24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>898.0</t>
+          <t>904.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
